--- a/LuBan/Config/Datas/RoleData.xlsx
+++ b/LuBan/Config/Datas/RoleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="19860" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1216,7 +1216,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>

--- a/LuBan/Config/Datas/RoleData.xlsx
+++ b/LuBan/Config/Datas/RoleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -1242,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
